--- a/数据图表.xlsx
+++ b/数据图表.xlsx
@@ -9,15 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="888" yWindow="0" windowWidth="29832" windowHeight="14268"/>
+    <workbookView xWindow="3552" yWindow="0" windowWidth="29832" windowHeight="14268"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,9 +30,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>epsm</t>
   </si>
   <si>
@@ -49,6 +43,10 @@
   </si>
   <si>
     <t>fsbndmq</t>
+  </si>
+  <si>
+    <t>iepsm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -236,7 +234,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -249,10 +247,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>S1</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" cap="none" baseline="0"/>
+              <a:t>escherichia coli</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" cap="none" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -270,7 +268,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -301,13 +299,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>new</c:v>
+                  <c:v>iepsm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -316,7 +314,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -455,7 +466,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -464,7 +475,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -603,7 +627,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -612,7 +636,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -748,7 +785,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -757,7 +794,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -890,7 +938,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -899,7 +947,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1038,7 +1097,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1047,7 +1106,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1179,17 +1251,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1067044384"/>
-        <c:axId val="1067044944"/>
+        <c:axId val="229193040"/>
+        <c:axId val="229182400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1067044384"/>
+        <c:axId val="229193040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1199,6 +1286,57 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="229182400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="229182400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1227,66 +1365,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1067044944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1067044944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1067044384"/>
+        <c:crossAx val="229193040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,7 +1378,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1336,7 +1415,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1388,7 +1467,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1401,10 +1480,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>S2</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" cap="none" baseline="0"/>
+              <a:t>rice</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" cap="none" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1422,7 +1501,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1453,13 +1532,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>new</c:v>
+                  <c:v>iepsm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1468,7 +1547,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1607,7 +1699,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1616,7 +1708,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1755,7 +1860,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1764,7 +1869,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1900,7 +2018,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1909,7 +2027,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2042,7 +2171,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -2051,7 +2180,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2190,7 +2330,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -2199,7 +2339,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2331,17 +2484,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1159205664"/>
-        <c:axId val="1159202864"/>
+        <c:axId val="234206272"/>
+        <c:axId val="234206832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1159205664"/>
+        <c:axId val="234206272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2351,6 +2519,57 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234206832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="234206832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2379,66 +2598,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159202864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1159202864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1159205664"/>
+        <c:crossAx val="234206272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2451,7 +2611,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2488,7 +2648,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2540,7 +2700,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2553,10 +2713,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>S3</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" cap="none" baseline="0"/>
+              <a:t>human genome</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" cap="none" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2574,7 +2734,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2605,13 +2765,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>new</c:v>
+                  <c:v>iepsm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2620,7 +2780,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2759,7 +2932,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2768,7 +2941,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2907,7 +3093,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -2916,7 +3102,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3052,7 +3251,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -3061,7 +3260,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3194,7 +3404,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -3203,7 +3413,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3342,7 +3563,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -3351,7 +3572,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3483,17 +3717,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1159219104"/>
-        <c:axId val="1159192784"/>
+        <c:axId val="234212432"/>
+        <c:axId val="234212992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1159219104"/>
+        <c:axId val="234212432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3503,6 +3752,57 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234212992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="234212992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -3531,66 +3831,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159192784"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1159192784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1159219104"/>
+        <c:crossAx val="234212432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3603,7 +3844,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3640,7 +3881,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3692,7 +3933,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3705,10 +3946,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>S4</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" cap="none" baseline="0"/>
+              <a:t>amino acid</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" cap="none" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3726,7 +3967,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3757,13 +3998,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>new</c:v>
+                  <c:v>iepsm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3772,7 +4013,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3911,7 +4165,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3920,7 +4174,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -4059,7 +4326,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -4068,7 +4335,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -4204,7 +4484,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -4213,7 +4493,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -4346,7 +4637,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -4355,7 +4646,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -4494,7 +4796,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -4503,7 +4805,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -4635,17 +4950,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1159224144"/>
-        <c:axId val="1159226944"/>
+        <c:axId val="725168400"/>
+        <c:axId val="725168960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1159224144"/>
+        <c:axId val="725168400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4655,6 +4985,57 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="725168960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="725168960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -4683,66 +5064,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159226944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1159226944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1159224144"/>
+        <c:crossAx val="725168400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4755,7 +5077,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4792,7 +5114,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -4984,7 +5306,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4995,7 +5317,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5018,18 +5340,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5041,7 +5363,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5049,11 +5371,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5085,12 +5407,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5100,12 +5422,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5117,13 +5439,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5135,12 +5457,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5150,18 +5472,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5183,15 +5506,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5206,15 +5527,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5225,17 +5546,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5244,10 +5564,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -5263,21 +5583,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5296,17 +5610,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5315,17 +5628,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5334,17 +5646,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5365,7 +5676,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5373,147 +5684,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5535,17 +5709,170 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5557,7 +5884,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5565,11 +5892,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5601,12 +5928,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5616,12 +5943,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5633,13 +5960,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5651,12 +5978,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5666,18 +5993,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5699,15 +6027,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5722,15 +6048,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5741,17 +6067,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5760,10 +6085,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -5779,21 +6104,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5812,17 +6131,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5831,17 +6149,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5850,17 +6167,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5881,7 +6197,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5889,147 +6205,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6051,17 +6230,170 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -6073,7 +6405,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6081,11 +6413,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6117,12 +6449,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6132,12 +6464,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6149,13 +6481,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6167,12 +6499,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6182,18 +6514,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6215,15 +6548,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6238,15 +6569,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6257,17 +6588,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6276,10 +6606,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -6295,21 +6625,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6328,17 +6652,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6347,17 +6670,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6366,17 +6688,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6397,7 +6718,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -6405,147 +6726,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6567,17 +6751,170 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -6589,7 +6926,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6597,11 +6934,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6633,12 +6970,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6648,12 +6985,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6665,13 +7002,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6683,12 +7020,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6698,18 +7035,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6731,15 +7069,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6754,15 +7090,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6773,17 +7109,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6792,10 +7127,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -6811,21 +7146,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6844,17 +7173,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6863,17 +7191,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6882,17 +7209,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6913,7 +7239,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -6921,7 +7247,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6934,6 +7260,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6941,10 +7278,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -6965,7 +7302,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6974,14 +7311,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6995,7 +7332,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -7011,8 +7348,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7028,6 +7365,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7035,14 +7383,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7178,1552 +7520,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="data"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet6"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="62">
-          <cell r="D62">
-            <v>8</v>
-          </cell>
-          <cell r="E62">
-            <v>12</v>
-          </cell>
-          <cell r="F62">
-            <v>16</v>
-          </cell>
-          <cell r="G62">
-            <v>20</v>
-          </cell>
-          <cell r="H62">
-            <v>24</v>
-          </cell>
-          <cell r="I62">
-            <v>28</v>
-          </cell>
-          <cell r="J62">
-            <v>32</v>
-          </cell>
-          <cell r="K62">
-            <v>36</v>
-          </cell>
-          <cell r="L62">
-            <v>40</v>
-          </cell>
-          <cell r="M62">
-            <v>44</v>
-          </cell>
-          <cell r="N62">
-            <v>48</v>
-          </cell>
-          <cell r="O62">
-            <v>64</v>
-          </cell>
-          <cell r="P62">
-            <v>128</v>
-          </cell>
-          <cell r="Q62">
-            <v>256</v>
-          </cell>
-          <cell r="R62">
-            <v>512</v>
-          </cell>
-          <cell r="S62">
-            <v>1024</v>
-          </cell>
-          <cell r="T62">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63" t="str">
-            <v>new</v>
-          </cell>
-          <cell r="D63">
-            <v>57.05</v>
-          </cell>
-          <cell r="E63">
-            <v>56.85</v>
-          </cell>
-          <cell r="F63">
-            <v>31.7</v>
-          </cell>
-          <cell r="G63">
-            <v>25.3</v>
-          </cell>
-          <cell r="H63">
-            <v>21.25</v>
-          </cell>
-          <cell r="I63">
-            <v>19.149999999999999</v>
-          </cell>
-          <cell r="J63">
-            <v>18.05</v>
-          </cell>
-          <cell r="K63">
-            <v>17.55</v>
-          </cell>
-          <cell r="L63">
-            <v>16.899999999999999</v>
-          </cell>
-          <cell r="M63">
-            <v>17.05</v>
-          </cell>
-          <cell r="N63">
-            <v>16.149999999999999</v>
-          </cell>
-          <cell r="O63">
-            <v>15.1</v>
-          </cell>
-          <cell r="P63">
-            <v>15.4</v>
-          </cell>
-          <cell r="Q63">
-            <v>8.85</v>
-          </cell>
-          <cell r="R63">
-            <v>5.65</v>
-          </cell>
-          <cell r="S63">
-            <v>3.7</v>
-          </cell>
-          <cell r="T63">
-            <v>2.85</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64" t="str">
-            <v>epsm</v>
-          </cell>
-          <cell r="D64">
-            <v>158.05000000000001</v>
-          </cell>
-          <cell r="E64">
-            <v>157.80000000000001</v>
-          </cell>
-          <cell r="F64">
-            <v>123.55</v>
-          </cell>
-          <cell r="G64">
-            <v>124.75</v>
-          </cell>
-          <cell r="H64">
-            <v>65.05</v>
-          </cell>
-          <cell r="I64">
-            <v>66.099999999999994</v>
-          </cell>
-          <cell r="J64">
-            <v>46.35</v>
-          </cell>
-          <cell r="K64">
-            <v>47.15</v>
-          </cell>
-          <cell r="L64">
-            <v>37.200000000000003</v>
-          </cell>
-          <cell r="M64">
-            <v>37.5</v>
-          </cell>
-          <cell r="N64">
-            <v>31.3</v>
-          </cell>
-          <cell r="O64">
-            <v>25.9</v>
-          </cell>
-          <cell r="P64">
-            <v>21.45</v>
-          </cell>
-          <cell r="Q64">
-            <v>17.95</v>
-          </cell>
-          <cell r="R64">
-            <v>13.4</v>
-          </cell>
-          <cell r="S64">
-            <v>10.95</v>
-          </cell>
-          <cell r="T64">
-            <v>9.15</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65" t="str">
-            <v>tvsbs</v>
-          </cell>
-          <cell r="D65">
-            <v>531.29</v>
-          </cell>
-          <cell r="E65">
-            <v>409.43</v>
-          </cell>
-          <cell r="F65">
-            <v>372.43</v>
-          </cell>
-          <cell r="G65">
-            <v>325.86</v>
-          </cell>
-          <cell r="H65">
-            <v>292</v>
-          </cell>
-          <cell r="I65">
-            <v>276.29000000000002</v>
-          </cell>
-          <cell r="J65">
-            <v>300.43</v>
-          </cell>
-          <cell r="K65">
-            <v>278.86</v>
-          </cell>
-          <cell r="L65">
-            <v>245</v>
-          </cell>
-          <cell r="M65">
-            <v>256.70999999999998</v>
-          </cell>
-          <cell r="N65">
-            <v>244.29</v>
-          </cell>
-          <cell r="O65">
-            <v>268.70999999999998</v>
-          </cell>
-          <cell r="P65">
-            <v>277.14</v>
-          </cell>
-          <cell r="Q65">
-            <v>293.86</v>
-          </cell>
-          <cell r="R65">
-            <v>270.57</v>
-          </cell>
-          <cell r="S65">
-            <v>301</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66" t="str">
-            <v>ufndmq</v>
-          </cell>
-          <cell r="D66">
-            <v>527.86</v>
-          </cell>
-          <cell r="E66">
-            <v>407.29</v>
-          </cell>
-          <cell r="F66">
-            <v>370</v>
-          </cell>
-          <cell r="G66">
-            <v>324.86</v>
-          </cell>
-          <cell r="H66">
-            <v>291</v>
-          </cell>
-          <cell r="I66">
-            <v>275.57</v>
-          </cell>
-          <cell r="K66">
-            <v>262.57</v>
-          </cell>
-          <cell r="L66">
-            <v>225</v>
-          </cell>
-          <cell r="M66">
-            <v>274.86</v>
-          </cell>
-          <cell r="N66">
-            <v>286.70999999999998</v>
-          </cell>
-          <cell r="O66">
-            <v>243</v>
-          </cell>
-          <cell r="P66">
-            <v>254.57</v>
-          </cell>
-          <cell r="Q66">
-            <v>274.86</v>
-          </cell>
-          <cell r="R66">
-            <v>280.43</v>
-          </cell>
-          <cell r="S66">
-            <v>254.71</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67" t="str">
-            <v>hashq</v>
-          </cell>
-          <cell r="D67">
-            <v>1022.86</v>
-          </cell>
-          <cell r="E67">
-            <v>1015.71</v>
-          </cell>
-          <cell r="F67">
-            <v>574.42999999999995</v>
-          </cell>
-          <cell r="G67">
-            <v>400.86</v>
-          </cell>
-          <cell r="H67">
-            <v>307.70999999999998</v>
-          </cell>
-          <cell r="I67">
-            <v>253.14</v>
-          </cell>
-          <cell r="J67">
-            <v>216.14</v>
-          </cell>
-          <cell r="K67">
-            <v>187</v>
-          </cell>
-          <cell r="L67">
-            <v>167.14</v>
-          </cell>
-          <cell r="M67">
-            <v>149.57</v>
-          </cell>
-          <cell r="N67">
-            <v>138</v>
-          </cell>
-          <cell r="O67">
-            <v>103.86</v>
-          </cell>
-          <cell r="P67">
-            <v>63.71</v>
-          </cell>
-          <cell r="Q67">
-            <v>45.29</v>
-          </cell>
-          <cell r="R67">
-            <v>43.71</v>
-          </cell>
-          <cell r="S67">
-            <v>40.29</v>
-          </cell>
-          <cell r="T67">
-            <v>40.29</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68" t="str">
-            <v>fsbndmq</v>
-          </cell>
-          <cell r="D68">
-            <v>376.57</v>
-          </cell>
-          <cell r="E68">
-            <v>296.14</v>
-          </cell>
-          <cell r="F68">
-            <v>226.14</v>
-          </cell>
-          <cell r="G68">
-            <v>184</v>
-          </cell>
-          <cell r="H68">
-            <v>152.71</v>
-          </cell>
-          <cell r="I68">
-            <v>142.13999999999999</v>
-          </cell>
-          <cell r="J68">
-            <v>126.29</v>
-          </cell>
-          <cell r="K68">
-            <v>120.57</v>
-          </cell>
-          <cell r="L68">
-            <v>120.57</v>
-          </cell>
-          <cell r="M68">
-            <v>113.86</v>
-          </cell>
-          <cell r="N68">
-            <v>113.14</v>
-          </cell>
-          <cell r="O68">
-            <v>94.14</v>
-          </cell>
-          <cell r="P68">
-            <v>94.29</v>
-          </cell>
-          <cell r="Q68">
-            <v>95.86</v>
-          </cell>
-          <cell r="R68">
-            <v>94</v>
-          </cell>
-          <cell r="S68">
-            <v>97.14</v>
-          </cell>
-          <cell r="T68">
-            <v>96.71</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70">
-            <v>8</v>
-          </cell>
-          <cell r="E70">
-            <v>12</v>
-          </cell>
-          <cell r="F70">
-            <v>16</v>
-          </cell>
-          <cell r="G70">
-            <v>20</v>
-          </cell>
-          <cell r="H70">
-            <v>24</v>
-          </cell>
-          <cell r="I70">
-            <v>28</v>
-          </cell>
-          <cell r="J70">
-            <v>32</v>
-          </cell>
-          <cell r="K70">
-            <v>36</v>
-          </cell>
-          <cell r="L70">
-            <v>40</v>
-          </cell>
-          <cell r="M70">
-            <v>44</v>
-          </cell>
-          <cell r="N70">
-            <v>48</v>
-          </cell>
-          <cell r="O70">
-            <v>64</v>
-          </cell>
-          <cell r="P70">
-            <v>128</v>
-          </cell>
-          <cell r="Q70">
-            <v>256</v>
-          </cell>
-          <cell r="R70">
-            <v>512</v>
-          </cell>
-          <cell r="S70">
-            <v>1024</v>
-          </cell>
-          <cell r="T70">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71" t="str">
-            <v>new</v>
-          </cell>
-          <cell r="D71">
-            <v>62.9</v>
-          </cell>
-          <cell r="E71">
-            <v>60</v>
-          </cell>
-          <cell r="F71">
-            <v>31.45</v>
-          </cell>
-          <cell r="G71">
-            <v>24.6</v>
-          </cell>
-          <cell r="H71">
-            <v>21.15</v>
-          </cell>
-          <cell r="I71">
-            <v>19.75</v>
-          </cell>
-          <cell r="J71">
-            <v>18.3</v>
-          </cell>
-          <cell r="K71">
-            <v>17.55</v>
-          </cell>
-          <cell r="L71">
-            <v>16.55</v>
-          </cell>
-          <cell r="M71">
-            <v>16.3</v>
-          </cell>
-          <cell r="N71">
-            <v>15.75</v>
-          </cell>
-          <cell r="O71">
-            <v>14.9</v>
-          </cell>
-          <cell r="P71">
-            <v>15</v>
-          </cell>
-          <cell r="Q71">
-            <v>8.8000000000000007</v>
-          </cell>
-          <cell r="R71">
-            <v>5.55</v>
-          </cell>
-          <cell r="S71">
-            <v>3.75</v>
-          </cell>
-          <cell r="T71">
-            <v>3.05</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72" t="str">
-            <v>epsm</v>
-          </cell>
-          <cell r="D72">
-            <v>161.5</v>
-          </cell>
-          <cell r="E72">
-            <v>164.45</v>
-          </cell>
-          <cell r="F72">
-            <v>122.6</v>
-          </cell>
-          <cell r="G72">
-            <v>124.25</v>
-          </cell>
-          <cell r="H72">
-            <v>65.150000000000006</v>
-          </cell>
-          <cell r="I72">
-            <v>65.900000000000006</v>
-          </cell>
-          <cell r="J72">
-            <v>46.75</v>
-          </cell>
-          <cell r="K72">
-            <v>47.4</v>
-          </cell>
-          <cell r="L72">
-            <v>37.4</v>
-          </cell>
-          <cell r="M72">
-            <v>38.1</v>
-          </cell>
-          <cell r="N72">
-            <v>31.75</v>
-          </cell>
-          <cell r="O72">
-            <v>26.25</v>
-          </cell>
-          <cell r="P72">
-            <v>21.8</v>
-          </cell>
-          <cell r="Q72">
-            <v>18.7</v>
-          </cell>
-          <cell r="R72">
-            <v>13.7</v>
-          </cell>
-          <cell r="S72">
-            <v>11.75</v>
-          </cell>
-          <cell r="T72">
-            <v>9.65</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73" t="str">
-            <v>tvsbs</v>
-          </cell>
-          <cell r="D73">
-            <v>502</v>
-          </cell>
-          <cell r="E73">
-            <v>385.86</v>
-          </cell>
-          <cell r="F73">
-            <v>371.86</v>
-          </cell>
-          <cell r="G73">
-            <v>369.71</v>
-          </cell>
-          <cell r="H73">
-            <v>306.14</v>
-          </cell>
-          <cell r="I73">
-            <v>283</v>
-          </cell>
-          <cell r="J73">
-            <v>281.86</v>
-          </cell>
-          <cell r="K73">
-            <v>260.70999999999998</v>
-          </cell>
-          <cell r="L73">
-            <v>273.43</v>
-          </cell>
-          <cell r="M73">
-            <v>224</v>
-          </cell>
-          <cell r="N73">
-            <v>216</v>
-          </cell>
-          <cell r="O73">
-            <v>211.57</v>
-          </cell>
-          <cell r="P73">
-            <v>198.43</v>
-          </cell>
-          <cell r="Q73">
-            <v>263.43</v>
-          </cell>
-          <cell r="R73">
-            <v>235.71</v>
-          </cell>
-          <cell r="S73">
-            <v>144.86000000000001</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74" t="str">
-            <v>ufndmq</v>
-          </cell>
-          <cell r="D74">
-            <v>500.29</v>
-          </cell>
-          <cell r="E74">
-            <v>385.57</v>
-          </cell>
-          <cell r="F74">
-            <v>370.29</v>
-          </cell>
-          <cell r="G74">
-            <v>368.43</v>
-          </cell>
-          <cell r="H74">
-            <v>304.14</v>
-          </cell>
-          <cell r="I74">
-            <v>283.29000000000002</v>
-          </cell>
-          <cell r="K74">
-            <v>293</v>
-          </cell>
-          <cell r="L74">
-            <v>228</v>
-          </cell>
-          <cell r="M74">
-            <v>239.57</v>
-          </cell>
-          <cell r="N74">
-            <v>219.29</v>
-          </cell>
-          <cell r="O74">
-            <v>247.14</v>
-          </cell>
-          <cell r="P74">
-            <v>213</v>
-          </cell>
-          <cell r="Q74">
-            <v>202</v>
-          </cell>
-          <cell r="R74">
-            <v>229.29</v>
-          </cell>
-          <cell r="S74">
-            <v>219.29</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75" t="str">
-            <v>hashq</v>
-          </cell>
-          <cell r="D75">
-            <v>1033</v>
-          </cell>
-          <cell r="E75">
-            <v>1016.14</v>
-          </cell>
-          <cell r="F75">
-            <v>570.86</v>
-          </cell>
-          <cell r="G75">
-            <v>399.71</v>
-          </cell>
-          <cell r="H75">
-            <v>308.70999999999998</v>
-          </cell>
-          <cell r="I75">
-            <v>252.71</v>
-          </cell>
-          <cell r="J75">
-            <v>213.71</v>
-          </cell>
-          <cell r="K75">
-            <v>186.43</v>
-          </cell>
-          <cell r="L75">
-            <v>165.29</v>
-          </cell>
-          <cell r="M75">
-            <v>149.86000000000001</v>
-          </cell>
-          <cell r="N75">
-            <v>136.71</v>
-          </cell>
-          <cell r="O75">
-            <v>102</v>
-          </cell>
-          <cell r="P75">
-            <v>62.14</v>
-          </cell>
-          <cell r="Q75">
-            <v>44.86</v>
-          </cell>
-          <cell r="R75">
-            <v>42.86</v>
-          </cell>
-          <cell r="S75">
-            <v>40</v>
-          </cell>
-          <cell r="T75">
-            <v>39.57</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76" t="str">
-            <v>fsbndmq</v>
-          </cell>
-          <cell r="D76">
-            <v>317</v>
-          </cell>
-          <cell r="E76">
-            <v>280.29000000000002</v>
-          </cell>
-          <cell r="F76">
-            <v>224.43</v>
-          </cell>
-          <cell r="G76">
-            <v>180</v>
-          </cell>
-          <cell r="H76">
-            <v>148.13999999999999</v>
-          </cell>
-          <cell r="I76">
-            <v>139.71</v>
-          </cell>
-          <cell r="J76">
-            <v>124.57</v>
-          </cell>
-          <cell r="K76">
-            <v>116.57</v>
-          </cell>
-          <cell r="L76">
-            <v>121.43</v>
-          </cell>
-          <cell r="M76">
-            <v>117.86</v>
-          </cell>
-          <cell r="N76">
-            <v>107.43</v>
-          </cell>
-          <cell r="O76">
-            <v>93.43</v>
-          </cell>
-          <cell r="P76">
-            <v>92.14</v>
-          </cell>
-          <cell r="Q76">
-            <v>94.43</v>
-          </cell>
-          <cell r="R76">
-            <v>91.71</v>
-          </cell>
-          <cell r="S76">
-            <v>91.43</v>
-          </cell>
-          <cell r="T76">
-            <v>93.71</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82">
-            <v>8</v>
-          </cell>
-          <cell r="E82">
-            <v>12</v>
-          </cell>
-          <cell r="F82">
-            <v>16</v>
-          </cell>
-          <cell r="G82">
-            <v>20</v>
-          </cell>
-          <cell r="H82">
-            <v>24</v>
-          </cell>
-          <cell r="I82">
-            <v>28</v>
-          </cell>
-          <cell r="J82">
-            <v>32</v>
-          </cell>
-          <cell r="K82">
-            <v>36</v>
-          </cell>
-          <cell r="L82">
-            <v>40</v>
-          </cell>
-          <cell r="M82">
-            <v>44</v>
-          </cell>
-          <cell r="N82">
-            <v>48</v>
-          </cell>
-          <cell r="O82">
-            <v>64</v>
-          </cell>
-          <cell r="P82">
-            <v>128</v>
-          </cell>
-          <cell r="Q82">
-            <v>256</v>
-          </cell>
-          <cell r="R82">
-            <v>512</v>
-          </cell>
-          <cell r="S82">
-            <v>1024</v>
-          </cell>
-          <cell r="T82">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83" t="str">
-            <v>new</v>
-          </cell>
-          <cell r="D83">
-            <v>61.35</v>
-          </cell>
-          <cell r="E83">
-            <v>57.4</v>
-          </cell>
-          <cell r="F83">
-            <v>31.45</v>
-          </cell>
-          <cell r="G83">
-            <v>25.65</v>
-          </cell>
-          <cell r="H83">
-            <v>21.55</v>
-          </cell>
-          <cell r="I83">
-            <v>19.7</v>
-          </cell>
-          <cell r="J83">
-            <v>18.649999999999999</v>
-          </cell>
-          <cell r="K83">
-            <v>17.5</v>
-          </cell>
-          <cell r="L83">
-            <v>16.899999999999999</v>
-          </cell>
-          <cell r="M83">
-            <v>16.55</v>
-          </cell>
-          <cell r="N83">
-            <v>15.85</v>
-          </cell>
-          <cell r="O83">
-            <v>15.6</v>
-          </cell>
-          <cell r="P83">
-            <v>15.45</v>
-          </cell>
-          <cell r="Q83">
-            <v>8.9499999999999993</v>
-          </cell>
-          <cell r="R83">
-            <v>5.9</v>
-          </cell>
-          <cell r="S83">
-            <v>3.95</v>
-          </cell>
-          <cell r="T83">
-            <v>3.05</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84" t="str">
-            <v>epsm</v>
-          </cell>
-          <cell r="D84">
-            <v>163.05000000000001</v>
-          </cell>
-          <cell r="E84">
-            <v>159.19999999999999</v>
-          </cell>
-          <cell r="F84">
-            <v>123.45</v>
-          </cell>
-          <cell r="G84">
-            <v>125.6</v>
-          </cell>
-          <cell r="H84">
-            <v>65.5</v>
-          </cell>
-          <cell r="I84">
-            <v>66.8</v>
-          </cell>
-          <cell r="J84">
-            <v>47.1</v>
-          </cell>
-          <cell r="K84">
-            <v>47.35</v>
-          </cell>
-          <cell r="L84">
-            <v>37.9</v>
-          </cell>
-          <cell r="M84">
-            <v>38.200000000000003</v>
-          </cell>
-          <cell r="N84">
-            <v>32.1</v>
-          </cell>
-          <cell r="O84">
-            <v>26.65</v>
-          </cell>
-          <cell r="P84">
-            <v>22.25</v>
-          </cell>
-          <cell r="Q84">
-            <v>18.850000000000001</v>
-          </cell>
-          <cell r="R84">
-            <v>14.05</v>
-          </cell>
-          <cell r="S84">
-            <v>11.75</v>
-          </cell>
-          <cell r="T84">
-            <v>9.9</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85" t="str">
-            <v>tvsbs</v>
-          </cell>
-          <cell r="D85">
-            <v>509.71</v>
-          </cell>
-          <cell r="E85">
-            <v>426.86</v>
-          </cell>
-          <cell r="F85">
-            <v>370.86</v>
-          </cell>
-          <cell r="G85">
-            <v>302.86</v>
-          </cell>
-          <cell r="H85">
-            <v>299.70999999999998</v>
-          </cell>
-          <cell r="I85">
-            <v>281.86</v>
-          </cell>
-          <cell r="J85">
-            <v>284.29000000000002</v>
-          </cell>
-          <cell r="K85">
-            <v>293.70999999999998</v>
-          </cell>
-          <cell r="L85">
-            <v>293.43</v>
-          </cell>
-          <cell r="M85">
-            <v>241.43</v>
-          </cell>
-          <cell r="N85">
-            <v>229.43</v>
-          </cell>
-          <cell r="O85">
-            <v>237.14</v>
-          </cell>
-          <cell r="P85">
-            <v>231.57</v>
-          </cell>
-          <cell r="Q85">
-            <v>169.86</v>
-          </cell>
-          <cell r="R85">
-            <v>211</v>
-          </cell>
-          <cell r="S85">
-            <v>239.29</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86" t="str">
-            <v>ufndmq</v>
-          </cell>
-          <cell r="D86">
-            <v>505.43</v>
-          </cell>
-          <cell r="E86">
-            <v>424.29</v>
-          </cell>
-          <cell r="F86">
-            <v>369</v>
-          </cell>
-          <cell r="G86">
-            <v>301.29000000000002</v>
-          </cell>
-          <cell r="H86">
-            <v>297.29000000000002</v>
-          </cell>
-          <cell r="I86">
-            <v>280.43</v>
-          </cell>
-          <cell r="K86">
-            <v>281.43</v>
-          </cell>
-          <cell r="L86">
-            <v>265.57</v>
-          </cell>
-          <cell r="M86">
-            <v>284.43</v>
-          </cell>
-          <cell r="N86">
-            <v>263.43</v>
-          </cell>
-          <cell r="O86">
-            <v>249.71</v>
-          </cell>
-          <cell r="P86">
-            <v>234.14</v>
-          </cell>
-          <cell r="Q86">
-            <v>233.29</v>
-          </cell>
-          <cell r="R86">
-            <v>240.14</v>
-          </cell>
-          <cell r="S86">
-            <v>216.14</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87" t="str">
-            <v>hashq</v>
-          </cell>
-          <cell r="D87">
-            <v>1028.29</v>
-          </cell>
-          <cell r="E87">
-            <v>1015.71</v>
-          </cell>
-          <cell r="F87">
-            <v>571.71</v>
-          </cell>
-          <cell r="G87">
-            <v>400.57</v>
-          </cell>
-          <cell r="H87">
-            <v>308.86</v>
-          </cell>
-          <cell r="I87">
-            <v>252.29</v>
-          </cell>
-          <cell r="J87">
-            <v>214.57</v>
-          </cell>
-          <cell r="K87">
-            <v>186.57</v>
-          </cell>
-          <cell r="L87">
-            <v>167</v>
-          </cell>
-          <cell r="M87">
-            <v>149</v>
-          </cell>
-          <cell r="N87">
-            <v>137.86000000000001</v>
-          </cell>
-          <cell r="O87">
-            <v>102.57</v>
-          </cell>
-          <cell r="P87">
-            <v>62.57</v>
-          </cell>
-          <cell r="Q87">
-            <v>44.29</v>
-          </cell>
-          <cell r="R87">
-            <v>43</v>
-          </cell>
-          <cell r="S87">
-            <v>40.29</v>
-          </cell>
-          <cell r="T87">
-            <v>39.57</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88" t="str">
-            <v>fsbndmq</v>
-          </cell>
-          <cell r="D88">
-            <v>360.29</v>
-          </cell>
-          <cell r="E88">
-            <v>281.29000000000002</v>
-          </cell>
-          <cell r="F88">
-            <v>215.14</v>
-          </cell>
-          <cell r="G88">
-            <v>182.86</v>
-          </cell>
-          <cell r="H88">
-            <v>166.14</v>
-          </cell>
-          <cell r="I88">
-            <v>137.13999999999999</v>
-          </cell>
-          <cell r="J88">
-            <v>126.86</v>
-          </cell>
-          <cell r="K88">
-            <v>118.57</v>
-          </cell>
-          <cell r="L88">
-            <v>120.14</v>
-          </cell>
-          <cell r="M88">
-            <v>117.14</v>
-          </cell>
-          <cell r="N88">
-            <v>113.43</v>
-          </cell>
-          <cell r="O88">
-            <v>91.14</v>
-          </cell>
-          <cell r="P88">
-            <v>96.29</v>
-          </cell>
-          <cell r="Q88">
-            <v>96.14</v>
-          </cell>
-          <cell r="R88">
-            <v>95.43</v>
-          </cell>
-          <cell r="S88">
-            <v>96.29</v>
-          </cell>
-          <cell r="T88">
-            <v>93.43</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92">
-            <v>8</v>
-          </cell>
-          <cell r="E92">
-            <v>12</v>
-          </cell>
-          <cell r="F92">
-            <v>16</v>
-          </cell>
-          <cell r="G92">
-            <v>20</v>
-          </cell>
-          <cell r="H92">
-            <v>24</v>
-          </cell>
-          <cell r="I92">
-            <v>28</v>
-          </cell>
-          <cell r="J92">
-            <v>32</v>
-          </cell>
-          <cell r="K92">
-            <v>36</v>
-          </cell>
-          <cell r="L92">
-            <v>40</v>
-          </cell>
-          <cell r="M92">
-            <v>44</v>
-          </cell>
-          <cell r="N92">
-            <v>48</v>
-          </cell>
-          <cell r="O92">
-            <v>64</v>
-          </cell>
-          <cell r="P92">
-            <v>128</v>
-          </cell>
-          <cell r="Q92">
-            <v>256</v>
-          </cell>
-          <cell r="R92">
-            <v>512</v>
-          </cell>
-          <cell r="S92">
-            <v>1024</v>
-          </cell>
-          <cell r="T92">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93" t="str">
-            <v>new</v>
-          </cell>
-          <cell r="D93">
-            <v>58.05</v>
-          </cell>
-          <cell r="E93">
-            <v>30.9</v>
-          </cell>
-          <cell r="F93">
-            <v>22.7</v>
-          </cell>
-          <cell r="G93">
-            <v>19.45</v>
-          </cell>
-          <cell r="H93">
-            <v>17.95</v>
-          </cell>
-          <cell r="I93">
-            <v>16.899999999999999</v>
-          </cell>
-          <cell r="J93">
-            <v>16.2</v>
-          </cell>
-          <cell r="K93">
-            <v>15.85</v>
-          </cell>
-          <cell r="L93">
-            <v>15.4</v>
-          </cell>
-          <cell r="M93">
-            <v>15.15</v>
-          </cell>
-          <cell r="N93">
-            <v>14.85</v>
-          </cell>
-          <cell r="O93">
-            <v>14.4</v>
-          </cell>
-          <cell r="P93">
-            <v>13.7</v>
-          </cell>
-          <cell r="Q93">
-            <v>8.5</v>
-          </cell>
-          <cell r="R93">
-            <v>4.8</v>
-          </cell>
-          <cell r="S93">
-            <v>3.6</v>
-          </cell>
-          <cell r="T93">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94" t="str">
-            <v>epsm</v>
-          </cell>
-          <cell r="D94">
-            <v>123</v>
-          </cell>
-          <cell r="E94">
-            <v>122.8</v>
-          </cell>
-          <cell r="F94">
-            <v>122.55</v>
-          </cell>
-          <cell r="G94">
-            <v>125.6</v>
-          </cell>
-          <cell r="H94">
-            <v>64.849999999999994</v>
-          </cell>
-          <cell r="I94">
-            <v>65.849999999999994</v>
-          </cell>
-          <cell r="J94">
-            <v>46.25</v>
-          </cell>
-          <cell r="K94">
-            <v>46.85</v>
-          </cell>
-          <cell r="L94">
-            <v>37.25</v>
-          </cell>
-          <cell r="M94">
-            <v>37.6</v>
-          </cell>
-          <cell r="N94">
-            <v>31.5</v>
-          </cell>
-          <cell r="O94">
-            <v>26</v>
-          </cell>
-          <cell r="P94">
-            <v>21.8</v>
-          </cell>
-          <cell r="Q94">
-            <v>18.600000000000001</v>
-          </cell>
-          <cell r="R94">
-            <v>13.4</v>
-          </cell>
-          <cell r="S94">
-            <v>10.7</v>
-          </cell>
-          <cell r="T94">
-            <v>8.9</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95" t="str">
-            <v>tvsbs</v>
-          </cell>
-          <cell r="D95">
-            <v>222.29</v>
-          </cell>
-          <cell r="E95">
-            <v>152</v>
-          </cell>
-          <cell r="F95">
-            <v>120.86</v>
-          </cell>
-          <cell r="G95">
-            <v>103.57</v>
-          </cell>
-          <cell r="H95">
-            <v>90.86</v>
-          </cell>
-          <cell r="I95">
-            <v>81.709999999999994</v>
-          </cell>
-          <cell r="J95">
-            <v>70.569999999999993</v>
-          </cell>
-          <cell r="K95">
-            <v>64.430000000000007</v>
-          </cell>
-          <cell r="L95">
-            <v>59.14</v>
-          </cell>
-          <cell r="M95">
-            <v>54.71</v>
-          </cell>
-          <cell r="N95">
-            <v>50.86</v>
-          </cell>
-          <cell r="O95">
-            <v>42.14</v>
-          </cell>
-          <cell r="P95">
-            <v>31.57</v>
-          </cell>
-          <cell r="Q95">
-            <v>29.29</v>
-          </cell>
-          <cell r="R95">
-            <v>31.57</v>
-          </cell>
-          <cell r="S95">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96" t="str">
-            <v>ufndmq</v>
-          </cell>
-          <cell r="D96">
-            <v>222.57</v>
-          </cell>
-          <cell r="E96">
-            <v>152.43</v>
-          </cell>
-          <cell r="F96">
-            <v>120.29</v>
-          </cell>
-          <cell r="G96">
-            <v>103.71</v>
-          </cell>
-          <cell r="H96">
-            <v>90.43</v>
-          </cell>
-          <cell r="I96">
-            <v>81</v>
-          </cell>
-          <cell r="K96">
-            <v>66.14</v>
-          </cell>
-          <cell r="L96">
-            <v>60</v>
-          </cell>
-          <cell r="M96">
-            <v>56</v>
-          </cell>
-          <cell r="N96">
-            <v>50</v>
-          </cell>
-          <cell r="O96">
-            <v>43</v>
-          </cell>
-          <cell r="P96">
-            <v>31.86</v>
-          </cell>
-          <cell r="Q96">
-            <v>28.71</v>
-          </cell>
-          <cell r="R96">
-            <v>31.43</v>
-          </cell>
-          <cell r="S96">
-            <v>29.14</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97" t="str">
-            <v>hashq</v>
-          </cell>
-          <cell r="D97">
-            <v>1018.11</v>
-          </cell>
-          <cell r="E97">
-            <v>1010.14</v>
-          </cell>
-          <cell r="F97">
-            <v>566.14</v>
-          </cell>
-          <cell r="G97">
-            <v>431.43</v>
-          </cell>
-          <cell r="H97">
-            <v>317.29000000000002</v>
-          </cell>
-          <cell r="I97">
-            <v>249.71</v>
-          </cell>
-          <cell r="J97">
-            <v>211.43</v>
-          </cell>
-          <cell r="K97">
-            <v>184.71</v>
-          </cell>
-          <cell r="L97">
-            <v>163</v>
-          </cell>
-          <cell r="M97">
-            <v>147</v>
-          </cell>
-          <cell r="N97">
-            <v>133.71</v>
-          </cell>
-          <cell r="O97">
-            <v>100.14</v>
-          </cell>
-          <cell r="P97">
-            <v>59.71</v>
-          </cell>
-          <cell r="Q97">
-            <v>42.71</v>
-          </cell>
-          <cell r="R97">
-            <v>41.43</v>
-          </cell>
-          <cell r="S97">
-            <v>39.43</v>
-          </cell>
-          <cell r="T97">
-            <v>39.43</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98" t="str">
-            <v>fsbndmq</v>
-          </cell>
-          <cell r="D98">
-            <v>126.86</v>
-          </cell>
-          <cell r="E98">
-            <v>86.86</v>
-          </cell>
-          <cell r="F98">
-            <v>68.569999999999993</v>
-          </cell>
-          <cell r="G98">
-            <v>57.86</v>
-          </cell>
-          <cell r="H98">
-            <v>52.14</v>
-          </cell>
-          <cell r="I98">
-            <v>46.57</v>
-          </cell>
-          <cell r="J98">
-            <v>43.57</v>
-          </cell>
-          <cell r="K98">
-            <v>40.29</v>
-          </cell>
-          <cell r="L98">
-            <v>39.86</v>
-          </cell>
-          <cell r="M98">
-            <v>40.43</v>
-          </cell>
-          <cell r="N98">
-            <v>41.29</v>
-          </cell>
-          <cell r="O98">
-            <v>41.43</v>
-          </cell>
-          <cell r="P98">
-            <v>40.14</v>
-          </cell>
-          <cell r="Q98">
-            <v>39.86</v>
-          </cell>
-          <cell r="R98">
-            <v>39.29</v>
-          </cell>
-          <cell r="S98">
-            <v>38</v>
-          </cell>
-          <cell r="T98">
-            <v>39</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8992,7 +7788,7 @@
   <dimension ref="C33:T70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9056,7 +7852,7 @@
     </row>
     <row r="35" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D35" s="4">
         <v>57.05</v>
@@ -9112,7 +7908,7 @@
     </row>
     <row r="36" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="5">
         <v>158.05000000000001</v>
@@ -9168,7 +7964,7 @@
     </row>
     <row r="37" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="5">
         <v>531.29</v>
@@ -9222,7 +8018,7 @@
     </row>
     <row r="38" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="5">
         <v>527.86</v>
@@ -9274,7 +8070,7 @@
     </row>
     <row r="39" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="5">
         <v>1022.86</v>
@@ -9330,7 +8126,7 @@
     </row>
     <row r="40" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="5">
         <v>376.57</v>
@@ -9443,7 +8239,7 @@
     </row>
     <row r="43" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D43" s="4">
         <v>62.9</v>
@@ -9499,7 +8295,7 @@
     </row>
     <row r="44" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="5">
         <v>161.5</v>
@@ -9555,7 +8351,7 @@
     </row>
     <row r="45" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="5">
         <v>502</v>
@@ -9609,7 +8405,7 @@
     </row>
     <row r="46" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="5">
         <v>500.29</v>
@@ -9661,7 +8457,7 @@
     </row>
     <row r="47" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="5">
         <v>1033</v>
@@ -9717,7 +8513,7 @@
     </row>
     <row r="48" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" s="5">
         <v>317</v>
@@ -9830,7 +8626,7 @@
     </row>
     <row r="55" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C55" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D55" s="4">
         <v>61.35</v>
@@ -9886,7 +8682,7 @@
     </row>
     <row r="56" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="5">
         <v>163.05000000000001</v>
@@ -9942,7 +8738,7 @@
     </row>
     <row r="57" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="5">
         <v>509.71</v>
@@ -9996,7 +8792,7 @@
     </row>
     <row r="58" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="5">
         <v>505.43</v>
@@ -10048,7 +8844,7 @@
     </row>
     <row r="59" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="5">
         <v>1028.29</v>
@@ -10104,7 +8900,7 @@
     </row>
     <row r="60" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" s="5">
         <v>360.29</v>
@@ -10217,7 +9013,7 @@
     </row>
     <row r="65" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D65" s="6">
         <v>58.05</v>
@@ -10273,7 +9069,7 @@
     </row>
     <row r="66" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="5">
         <v>123</v>
@@ -10329,7 +9125,7 @@
     </row>
     <row r="67" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" s="5">
         <v>222.29</v>
@@ -10383,7 +9179,7 @@
     </row>
     <row r="68" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" s="5">
         <v>222.57</v>
@@ -10435,7 +9231,7 @@
     </row>
     <row r="69" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" s="5">
         <v>1018.11</v>
@@ -10491,7 +9287,7 @@
     </row>
     <row r="70" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C70" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" s="5">
         <v>126.86</v>
